--- a/result_group_distance.xlsx
+++ b/result_group_distance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="72">
   <si>
     <t>Standart AV</t>
   </si>
@@ -157,79 +157,73 @@
     <t>Diversificado_recs_random AV</t>
   </si>
   <si>
-    <t>Praia dos Artistas</t>
-  </si>
-  <si>
-    <t>Alerta Praia Bar</t>
-  </si>
-  <si>
-    <t>Bar Do Pepe</t>
+    <t>UFBA Art Room</t>
+  </si>
+  <si>
+    <t>Cine Daten Paseo</t>
+  </si>
+  <si>
+    <t>Memorial of the City of Salvador</t>
+  </si>
+  <si>
+    <t>30 Segundos Bar</t>
+  </si>
+  <si>
+    <t>Restaurante Itapua</t>
   </si>
   <si>
     <t>Praia de Armacao</t>
   </si>
   <si>
-    <t>Cafelier</t>
-  </si>
-  <si>
-    <t>Cultural Area Barroquinha</t>
-  </si>
-  <si>
-    <t>Shopping Itaigara</t>
-  </si>
-  <si>
-    <t>Shopping Capemi Salvador</t>
-  </si>
-  <si>
-    <t>Ferreiro Cafe Salvador</t>
-  </si>
-  <si>
-    <t>Terapia Restaurante e Bar</t>
+    <t>Rua 15 Restaurante e Bar</t>
+  </si>
+  <si>
+    <t>Praia de Ipitanga</t>
+  </si>
+  <si>
+    <t>Cathedral of Salvador</t>
+  </si>
+  <si>
+    <t>movie_theater</t>
+  </si>
+  <si>
+    <t>museum</t>
   </si>
   <si>
     <t>bar</t>
   </si>
   <si>
-    <t>cafe</t>
+    <t>restaurant</t>
   </si>
   <si>
     <t>tourist_attraction</t>
   </si>
   <si>
-    <t>shopping_mall</t>
-  </si>
-  <si>
-    <t>Bahia, 41740-000</t>
-  </si>
-  <si>
-    <t>R. Aristides Milton  516 - Itapua  Salvador - BA  41301-110  Brazil</t>
-  </si>
-  <si>
-    <t>R. da Ilha  36 - Itapua  Salvador - BA  41620-620  Brazil</t>
+    <t>Av. Reitor Miguel Calmon  s/n  PAC Vale do - Canela  Salvador - BA  40110-100  Brazil</t>
+  </si>
+  <si>
+    <t>Rua Rubens Guelli  135 - Itaigara  Salvador - BA  41815-135  Brazil</t>
+  </si>
+  <si>
+    <t>Camara Municipal de - Comercio  Salvador - BA  44570-340  Brazil</t>
+  </si>
+  <si>
+    <t>R. Ilheus  21 - Rio Vermelho  Salvador - BA  41940-570  Brazil</t>
+  </si>
+  <si>
+    <t>R. Flor do Bosque  126 - Itapua  Salvador - BA  41610-190  Brazil</t>
   </si>
   <si>
     <t>Bahia</t>
   </si>
   <si>
-    <t>R. do Carmo  50 - Santo Antonio Alem do Carmo  Salvador - BA  40301-380  Brazil</t>
-  </si>
-  <si>
-    <t>Rua do Couro  s/ n - Barroquinha  Salvador - BA  40020-160  Brazil</t>
-  </si>
-  <si>
-    <t>Av. Antonio Carlos Magalhaes  656 - Pituba  Salvador - BA  41825-000  Brazil</t>
-  </si>
-  <si>
-    <t>R. da Alfazema  752 - Caminho das arvores  Salvador - BA  41820-710  Brazil</t>
-  </si>
-  <si>
-    <t>Av. Tancredo Neves  2915 - 1035 - Caminho das arvores  Salvador - BA  41820-021  Brazil</t>
-  </si>
-  <si>
-    <t>Av. Jorge Amado  16 - Imbui  Salvador - BA  41720-110  Brazil</t>
-  </si>
-  <si>
-    <t>0.797543462299385</t>
+    <t>Av. Iemanja - Boca do Rio  Salvador - BA  41710-755  Brazil</t>
+  </si>
+  <si>
+    <t>Largo Terreiro de Jesus  s/n - Pelourinho  Salvador - BA  40020-210  Brazil</t>
+  </si>
+  <si>
+    <t>0.962127578573291</t>
   </si>
   <si>
     <t xml:space="preserve">Intersection random: </t>
@@ -1301,25 +1295,25 @@
         <v>0</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="E33">
-        <v>1.144918363654355</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>0.572</v>
+        <v>1.953</v>
       </c>
       <c r="G33">
-        <v>-12.977609</v>
+        <v>-12.995381</v>
       </c>
       <c r="H33">
-        <v>-38.4197128</v>
+        <v>-38.518751</v>
       </c>
       <c r="I33" t="s">
         <v>61</v>
@@ -1330,25 +1324,25 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>43</v>
+        <v>165</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E34">
         <v>1</v>
       </c>
       <c r="F34">
-        <v>1.332</v>
+        <v>1.953</v>
       </c>
       <c r="G34">
-        <v>-12.9506612</v>
+        <v>-12.9955401</v>
       </c>
       <c r="H34">
-        <v>-38.3635003</v>
+        <v>-38.4712012</v>
       </c>
       <c r="I34" t="s">
         <v>62</v>
@@ -1359,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="B35">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
@@ -1368,16 +1362,16 @@
         <v>57</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>0.09429133211029511</v>
       </c>
       <c r="F35">
-        <v>2.028</v>
+        <v>0.926</v>
       </c>
       <c r="G35">
-        <v>-12.9437347</v>
+        <v>-12.9748831</v>
       </c>
       <c r="H35">
-        <v>-38.3686778</v>
+        <v>-38.5126065</v>
       </c>
       <c r="I35" t="s">
         <v>63</v>
@@ -1388,28 +1382,28 @@
         <v>3</v>
       </c>
       <c r="B36">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>50</v>
+        <v>33</v>
       </c>
       <c r="D36" t="s">
         <v>37</v>
       </c>
       <c r="E36">
-        <v>1.181706436089758</v>
+        <v>1</v>
       </c>
       <c r="F36">
-        <v>0.591</v>
+        <v>1.586</v>
       </c>
       <c r="G36">
-        <v>-12.9957437</v>
+        <v>-12.952961</v>
       </c>
       <c r="H36">
-        <v>-38.4408488</v>
+        <v>-38.348126</v>
       </c>
       <c r="I36" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1417,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B37">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
         <v>58</v>
@@ -1429,16 +1423,16 @@
         <v>1</v>
       </c>
       <c r="F37">
-        <v>0.5</v>
+        <v>1.332</v>
       </c>
       <c r="G37">
-        <v>-12.9680461</v>
+        <v>-13.0092794</v>
       </c>
       <c r="H37">
-        <v>-38.5074128</v>
+        <v>-38.4915051</v>
       </c>
       <c r="I37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1446,10 +1440,10 @@
         <v>5</v>
       </c>
       <c r="B38">
-        <v>374</v>
+        <v>263</v>
       </c>
       <c r="C38" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
         <v>59</v>
@@ -1458,16 +1452,16 @@
         <v>1</v>
       </c>
       <c r="F38">
-        <v>2.024</v>
+        <v>1.573</v>
       </c>
       <c r="G38">
-        <v>-12.977465</v>
+        <v>-12.9496571</v>
       </c>
       <c r="H38">
-        <v>-38.5145023</v>
+        <v>-38.3691467</v>
       </c>
       <c r="I38" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1475,28 +1469,28 @@
         <v>6</v>
       </c>
       <c r="B39">
-        <v>347</v>
+        <v>101</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="E39">
-        <v>1.221516916327456</v>
+        <v>1.181706436089758</v>
       </c>
       <c r="F39">
-        <v>1.705</v>
+        <v>0.591</v>
       </c>
       <c r="G39">
-        <v>-12.9964162</v>
+        <v>-12.9957437</v>
       </c>
       <c r="H39">
-        <v>-38.4637345</v>
+        <v>-38.4408488</v>
       </c>
       <c r="I39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1504,28 +1498,28 @@
         <v>7</v>
       </c>
       <c r="B40">
-        <v>349</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E40">
-        <v>1.353198932593896</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.771</v>
+        <v>2.028</v>
       </c>
       <c r="G40">
-        <v>-12.9831</v>
+        <v>-12.9795299</v>
       </c>
       <c r="H40">
-        <v>-38.465</v>
+        <v>-38.4299455</v>
       </c>
       <c r="I40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1533,28 +1527,28 @@
         <v>8</v>
       </c>
       <c r="B41">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>1.219282701737286</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.61</v>
       </c>
       <c r="G41">
-        <v>-12.9778667</v>
+        <v>-12.9231499</v>
       </c>
       <c r="H41">
-        <v>-38.4544654</v>
+        <v>-38.3137418</v>
       </c>
       <c r="I41" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1562,28 +1556,28 @@
         <v>9</v>
       </c>
       <c r="B42">
-        <v>49</v>
+        <v>371</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E42">
-        <v>1.127132897628926</v>
+        <v>0.1221469833687715</v>
       </c>
       <c r="F42">
-        <v>0.5639999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G42">
-        <v>-12.9693369</v>
+        <v>-12.9728526</v>
       </c>
       <c r="H42">
-        <v>-38.4368642</v>
+        <v>-38.5104604</v>
       </c>
       <c r="I42" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1591,15 +1585,15 @@
         <v>30</v>
       </c>
       <c r="B43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
